--- a/testcase_student_management (2).xlsx
+++ b/testcase_student_management (2).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>Nhu</t>
+  </si>
+  <si>
+    <t>Function</t>
   </si>
 </sst>
 </file>
@@ -472,7 +475,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,7 +487,7 @@
     <col min="5" max="5" width="69.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
@@ -575,7 +578,7 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>12</v>
